--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A4:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
